--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_08_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_08_end.xlsx
@@ -1020,7 +1020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mostima"]   "That is all?" I think you need to work on your expressions before you go saying things like that.
+    <t xml:space="preserve">[name="Mostima"]   'That is all?' I think you need to work on your expressions before you go saying things like that.
 </t>
   </si>
   <si>
@@ -1056,7 +1056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mostima"]   Wait a second... why are you telling me all of this? This isn't like a "reveal your whole plan before killing me to keep your secrets" sort of thing, is it?
+    <t xml:space="preserve">[name="Mostima"]   Wait a second... why are you telling me all of this? This isn't like a 'reveal your whole plan before killing me to keep your secrets' sort of thing, is it?
 </t>
   </si>
   <si>
@@ -1128,7 +1128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mostima"]   How are we supposed to do "lively carousing?"
+    <t xml:space="preserve">[name="Mostima"]   How are we supposed to do 'lively carousing?'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_08_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_08_end.xlsx
@@ -916,7 +916,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">11:45 PM \ Cloudy
+    <t xml:space="preserve">11:45 P.M. \ Cloudy
 </t>
   </si>
   <si>
